--- a/第一行代码 Android (第3版)-Note.xlsx
+++ b/第一行代码 Android (第3版)-Note.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UASD-CHANGJIAQI\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098DB43F-08FA-44E1-A226-2954CB506FA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DD8F20-9FE8-4FF8-AA43-0DD9DC633BBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="200">
   <si>
     <t>Android系统架构</t>
     <phoneticPr fontId="1"/>
@@ -1045,22 +1045,6 @@
     <t>件⽤于指定项⽬代码的混淆规则，当代码开发完成后打包成安 装包⽂件，如果不希望代码被别⼈破解，通常会将代码进⾏混淆，从 ⽽让破解者难以阅读</t>
   </si>
   <si>
-    <r>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 2024-12-19 11:15</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>项目运行原理（以初始项目为例</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1180,7 +1164,1034 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>study</t>
+    <t>Android的日志工具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.util.Log提供了五个方法实现</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Log.v()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Log.d()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Log.i()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Log.e()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Log.w()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 对应verbose 级别最低</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>级别最高</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>println()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> system.out.println() 与 Log的区别</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>书签</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>第 1 章 开始启程，你的第⼀⾏ Android 代</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>第 1 章 开始启程，你的第⼀⾏ Android 代</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>第 2 章 Kotlin 探究新</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⾔，快速入门</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>第 2 章 探究新语</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⾔，快速⼊</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kotlin </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+  </si>
+  <si>
+    <t>kotlin的地位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java语言的运行机制</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编程语言</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编译型语言</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解释型语言</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编写原代码一次性编译成计算机可识别二进制，计算机直接执行（C C++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解释器一行行读取源代码，实时进行编译，再执行（Python JavaScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>特殊class文件  java虚拟机</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java 和 Kotlin 数据类型对照表</t>
+  </si>
+  <si>
+    <t>val var 关键字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java中int etc是关键字 kotlin中是类</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fun 关键字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>对比 java的switvh（case break）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>类型匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> （is int</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>略</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>循环语句</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">while </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与Java中的完全一致</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>面向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象编程</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要先将事物封 装成具体的类，</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>然后将事物所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有的属性和能⼒分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的字段和 函数，</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>接下来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⾏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例化，</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>再根据具体的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⽤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的字段和 ⽅法即可</t>
+    </r>
+  </si>
+  <si>
+    <t>构造函数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主构造函数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次构造函数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最常⽤的构造函数，每个类默认都会有⼀个不带参数 的主构造函数</t>
+  </si>
+  <si>
+    <t>个人理解就是（）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>没有函数体，直接定义在类名的后⾯即可</t>
+  </si>
+  <si>
+    <t>没有主构造函数只有次构造函数依然合法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>函数的可见性修饰符</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>数据类与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单例类</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数据类</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用于将服务器端或数据库中的数据映射到内存中，为编程逻辑提供数据模型的支持</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MVC MVP MVVM M指的都是数据类</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常需要重写equals（）hasCode（）toString（）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equals（）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hasCode（）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equals（）的配套方法，需要一起重写，否则会导致HashMap HashSet等hash相关的系统类无法正常工作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toString（）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提供更清晰的输入日志，否则就是一行内存地址</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kotlin 嘎嘎简单</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java实现</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不添加data关键字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>单例类</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kotlin特有的功能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日期书签</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2024-12-19 11:15</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2024-12-20</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2024/12/23</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>单例模式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最常用最基础的设计模式之一，可以用于避免创建重复的对象</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>们希望某个类在全局最多只能拥有 ⼀个实例，这时就可以使⽤单例模式</t>
+  </si>
+  <si>
+    <r>
+      <t>Lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集合的创建与遍历</t>
+  </si>
+  <si>
+    <t>java kotlin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集合</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map集合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一种键值对形式的数据结构</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集合的函数式API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学习函数式API的语法结构，也就是Lamdba表达式的语法结构</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lambda定义</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lambda 就是⼀⼩段可以作为参数传递的代码</t>
+  </si>
+  <si>
+    <t>常用函数式API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map filter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>any all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Kotlin完全抛弃了new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键字</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空指针检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判空辅助工具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>let</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提供了函数式 API 的编程 接⼝，并将原始调⽤对象作为参数传递到 Lambda 表达式中</t>
+  </si>
+  <si>
+    <t>是个函数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> let 函数是可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>理全局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>量的 判空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的，⽽ if 判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⽆法做到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⼀点。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小魔术</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>德玛西亚禁魔，略</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上 2024/12/24 15:56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>第 3 章 Activity 先从看得到的⼊⼿，探究</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acticity</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1188,7 +2199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,6 +2265,61 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1272,10 +2338,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1284,12 +2351,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF888E3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2289,8 +3366,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>84259</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>589084</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>122651</xdr:rowOff>
     </xdr:to>
@@ -2367,6 +3444,3781 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 下 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A1091C-8B07-40DF-9057-2E342459F0B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="34089975"/>
+          <a:ext cx="276225" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>179371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>405621</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>49790</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BA70F8-054D-4A7C-A674-6216A200959F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5076825" y="33754996"/>
+          <a:ext cx="3825096" cy="2489794"/>
+          <a:chOff x="5076825" y="33754996"/>
+          <a:chExt cx="3825096" cy="2489794"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="図 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66870139-A019-4DD3-AA7F-46632D15D9F9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5076825" y="33813750"/>
+            <a:ext cx="2442169" cy="2420652"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14537C7-F334-470F-A8C7-4E7CFD76FE84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7014353" y="33754996"/>
+            <a:ext cx="1887568" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Kotlin</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EDE5FD-0EFA-44AD-B81C-E28E0D04E556}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6904911" y="35040871"/>
+            <a:ext cx="1424493" cy="1203919"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>少</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>高级</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>安全</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>100%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>兼容</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Java</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608890</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>227917</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB3F810-C04A-432A-9ED5-5876C27F5EA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="38338125"/>
+          <a:ext cx="5676190" cy="5466667"/>
+          <a:chOff x="685800" y="38338125"/>
+          <a:chExt cx="5676190" cy="5466667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="図 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBB93CD-1F07-4FBB-AB52-60CDF1219512}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="38338125"/>
+            <a:ext cx="5676190" cy="5466667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E601E1-EE1E-4F1D-9C69-C0161A62BDFD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2655804" y="42594163"/>
+            <a:ext cx="832024" cy="280205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>------</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>String</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47261</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>28423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65C171D-293B-4663-AFFD-51BB3F4282B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="46434375"/>
+          <a:ext cx="2914286" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514245</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>95060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5C61E4-F99B-4A37-A8DA-9270CBB19906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5753100" y="46434375"/>
+          <a:ext cx="4629045" cy="1523810"/>
+          <a:chOff x="5753100" y="46434375"/>
+          <a:chExt cx="4629045" cy="1523810"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="図 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C76DF34-C8E6-4F86-90DC-E09B599FB251}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5753100" y="46434375"/>
+            <a:ext cx="4066667" cy="1523810"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="32" name="図 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BA440E-EF86-471E-ABED-340A18B271F9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9544050" y="46624875"/>
+            <a:ext cx="838095" cy="1276190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247190</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>123631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0885616D-905F-417D-97E2-CF8C85860273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239500" y="46434375"/>
+          <a:ext cx="3676190" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>580162</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>237749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA91E90-230B-4ED0-93E7-CF96C3C991A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="48663225"/>
+          <a:ext cx="6904762" cy="3009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>608498</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>218844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6653BC-1E3B-45B4-8CC9-39278C3D8EBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="50044350"/>
+          <a:ext cx="8819048" cy="1847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8324</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>218810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBC908-470F-491E-9E4E-16555F7F6CA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="52387500"/>
+          <a:ext cx="9609524" cy="2123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389952</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>142708</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="グループ化 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA494BE7-5393-4071-BED6-C7F58714B75D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3695700" y="54864000"/>
+          <a:ext cx="7933752" cy="1476208"/>
+          <a:chOff x="3695700" y="54864000"/>
+          <a:chExt cx="7933752" cy="1476208"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="40" name="図 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2AF344-8265-4AF9-AB34-3E8A1D815146}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3695700" y="55006875"/>
+            <a:ext cx="6380952" cy="1333333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="41" name="図 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F8A390-AE6A-46EF-B843-D1A1FDA01CE7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7048500" y="54864000"/>
+            <a:ext cx="4580952" cy="380952"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475604</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>47292</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="グループ化 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACCDF4E-29BC-410C-9F25-817222A32DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1371600" y="56473725"/>
+          <a:ext cx="11715104" cy="2866692"/>
+          <a:chOff x="1371600" y="56473725"/>
+          <a:chExt cx="11715104" cy="2866692"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="45" name="グループ化 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE71E71-10B9-485A-841A-FE3BF1873864}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1371600" y="56473725"/>
+            <a:ext cx="11715104" cy="2866692"/>
+            <a:chOff x="1371600" y="56473725"/>
+            <a:chExt cx="11715104" cy="2866692"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="図 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CFB852-AF84-43A5-8758-D950A7DA04D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1371600" y="56673750"/>
+              <a:ext cx="7752381" cy="2666667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="図 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82668CDB-69C6-441C-B73D-EAAC9842878C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7915275" y="56473725"/>
+              <a:ext cx="5171429" cy="2066667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="46" name="図 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFC7647-D720-46FE-9E16-F440FFC110E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7591425" y="58683525"/>
+            <a:ext cx="5247619" cy="542857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>633918</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>13294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FF78D3-2675-4A54-8A03-DA470425372A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10448925" y="57626250"/>
+          <a:ext cx="1424493" cy="1203919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>面向接口编程：关注接口而非实现</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>多态：允许一个接口在不同实现具有不同行为</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561457</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>113967</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="グループ化 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D97367-B1ED-42E6-AE8C-2C44C5B01A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1400175" y="59550300"/>
+          <a:ext cx="10400782" cy="4143042"/>
+          <a:chOff x="1400175" y="59550300"/>
+          <a:chExt cx="10400782" cy="4143042"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="50" name="図 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7BE1B1-D1B4-4077-BFA2-AABB7FAD37B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1400175" y="59550300"/>
+            <a:ext cx="9219048" cy="1952381"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="51" name="図 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFC792E-23E7-4AC8-96F8-3D9BCA00D81C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2095500" y="61026675"/>
+            <a:ext cx="6761905" cy="2666667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="52" name="図 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C66AEF4-817D-43C6-BF32-558C536DD643}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7658100" y="62179200"/>
+            <a:ext cx="4142857" cy="980952"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37373</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>56700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE17ABA-BA98-43CA-A7A3-8F439704A369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="64084200"/>
+          <a:ext cx="5819048" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475764</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>152273</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="グループ化 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F74AA8-CB71-46F3-A085-0B65C12650A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2238375" y="69799200"/>
+          <a:ext cx="10848489" cy="2028698"/>
+          <a:chOff x="2238375" y="69799200"/>
+          <a:chExt cx="10848489" cy="2028698"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="56" name="図 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDE9A27-13A0-4E5D-B9F5-117C06921107}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2238375" y="70132575"/>
+            <a:ext cx="7514286" cy="1600000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="57" name="図 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A169F100-6CE9-4230-BF0D-E11B1C7A2F5B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3457575" y="69799200"/>
+            <a:ext cx="9371428" cy="628571"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="58" name="図 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A4CB42-60DF-4995-80C4-321CB03C64BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9201150" y="70808850"/>
+            <a:ext cx="3885714" cy="1019048"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523169</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>189808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323144</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>229587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矢印: 右 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62678F6E-0838-4F37-A3D6-3BEFF37FAE07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18567028">
+          <a:off x="13000080" y="69142122"/>
+          <a:ext cx="754154" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>303998</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>208930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4415AF7A-7107-4935-B510-0A83EB51C108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14039850" y="66922650"/>
+          <a:ext cx="6419048" cy="4961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED99D4E-CCD5-4AC5-BB91-3B8F855FC77C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="69703950"/>
+          <a:ext cx="9591675" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8994</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>104702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44469353-C8E7-4AA3-A03E-92F74A3D3220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="72151875"/>
+          <a:ext cx="4247619" cy="580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342088</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>237919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21293A14-F583-42D9-9A5B-A4A16859006B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="73599675"/>
+          <a:ext cx="6495238" cy="1647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599657</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>9167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2775E2-D091-453B-A381-2FFCB047E3BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="76200000"/>
+          <a:ext cx="3342857" cy="2866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550905</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>123971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>133496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矢印: 右 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F126EB22-61E3-4A35-8479-C1C52320F60C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6989805" y="77276471"/>
+          <a:ext cx="1992270" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>532396</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>28215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F435433B-DF6B-4C4C-BDE5-EFD2561C5DE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229725" y="76209525"/>
+          <a:ext cx="8028571" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28455</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>95023</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="グループ化 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C401CB4D-D6BD-4E31-A5CA-BB1636B880DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3000375" y="79476600"/>
+          <a:ext cx="8267580" cy="1819048"/>
+          <a:chOff x="3000375" y="79476600"/>
+          <a:chExt cx="8267580" cy="1819048"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="70" name="図 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A077B6DB-7944-4FCA-8AC7-9DB4990B2AF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3000375" y="79476600"/>
+            <a:ext cx="7923809" cy="1819048"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="71" name="図 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FFC7DB-6FEF-4EB8-A143-01AD987ECEEC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10306050" y="79752825"/>
+            <a:ext cx="961905" cy="1352381"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>656117</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>209290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1EEA06-4B31-4681-B0BA-3E64676590E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="81714975"/>
+          <a:ext cx="8866667" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>796946</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>131713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3156</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>131668</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="96" name="グループ化 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DE96B3-3786-4BE9-8435-7C3C074A5510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2997221" y="84427963"/>
+          <a:ext cx="7559635" cy="5714955"/>
+          <a:chOff x="3054371" y="84437488"/>
+          <a:chExt cx="7559635" cy="5714955"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="78" name="グループ化 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FFF6D5-E3BF-4C99-BDF2-416CA70FBF22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3152775" y="84437488"/>
+            <a:ext cx="6323809" cy="887399"/>
+            <a:chOff x="3324225" y="84418438"/>
+            <a:chExt cx="6323809" cy="887399"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="75" name="図 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284D1E5E-D794-4641-B91E-4DFAAC3185EC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="84801075"/>
+              <a:ext cx="6323809" cy="504762"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="正方形/長方形 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF2D0F8-8CCA-4E70-9B27-5E5FF7E106C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3388854" y="84418438"/>
+              <a:ext cx="2261517" cy="361766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>Lambda</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>表达式最完整语法结构</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="85" name="グループ化 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B133910-606B-4D2E-AB08-6E61C3261A7C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3181350" y="85342363"/>
+            <a:ext cx="6228571" cy="1135006"/>
+            <a:chOff x="3286125" y="85370938"/>
+            <a:chExt cx="6228571" cy="1135006"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="79" name="図 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60F8F50-8624-40BB-A7F9-D61DCCB370F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3286125" y="85658325"/>
+              <a:ext cx="6228571" cy="847619"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="正方形/長方形 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE06FBC-116F-4F83-9646-4693EE4CAA33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3339198" y="85370938"/>
+              <a:ext cx="646331" cy="300788"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>案例：</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="87" name="グループ化 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1992F5B1-4FEA-4011-9B9D-B1FEB489DA84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3171448" y="86513938"/>
+            <a:ext cx="6257520" cy="677866"/>
+            <a:chOff x="3200023" y="86599663"/>
+            <a:chExt cx="6257520" cy="677866"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="正方形/長方形 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA3B3F6-FF04-40E6-A8B9-30B63A23360C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3200023" y="86599663"/>
+              <a:ext cx="5934830" cy="361766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>⾸先，不需要专门定义⼀个 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>lambda </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>变量，直接将 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>lambda </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>表 达式传⼊ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>maxBy </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>函数当中</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="86" name="図 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353F1DB1-D401-4A2D-B2BD-9C5312E92546}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3200400" y="86906100"/>
+              <a:ext cx="6257143" cy="371429"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="89" name="グループ化 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E806FBC4-9F53-44F5-8292-072B7F1A3159}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3179729" y="87247363"/>
+            <a:ext cx="7137467" cy="763585"/>
+            <a:chOff x="3179729" y="87247363"/>
+            <a:chExt cx="7137467" cy="763585"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="正方形/長方形 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2740D0-F960-484A-BEA5-59A808D9E2D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3179729" y="87247363"/>
+              <a:ext cx="7137467" cy="361766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>然后 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>Kotlin </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>规定，当 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>Lambda </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>参数是函数的最后⼀个参数时，可以将 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>Lambda </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>表达式移到函数括号的外⾯</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="88" name="図 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F26CC54-00CE-440E-A6A9-43470AB60FEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3181350" y="87591900"/>
+              <a:ext cx="6276190" cy="419048"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="91" name="グループ化 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F523704A-56F1-4EFC-A625-34A356F9224F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3200400" y="87942688"/>
+            <a:ext cx="6228571" cy="735012"/>
+            <a:chOff x="3200400" y="87942688"/>
+            <a:chExt cx="6228571" cy="735012"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="正方形/長方形 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07B3EF0-95BB-4A74-A478-40817BBBA61C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3248567" y="87942688"/>
+              <a:ext cx="5094793" cy="361766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>如果 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                <a:t>Lambda </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>参数是函数的唯⼀⼀个参数的话，还可以将函数的 括号省略</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="90" name="図 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9516F6-C379-46EA-BDE0-38B1E30716D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3200400" y="88277700"/>
+              <a:ext cx="6228571" cy="400000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="93" name="グループ化 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A17E615-B03D-4B10-B369-C2D7CABF131D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3171825" y="88714213"/>
+            <a:ext cx="6637044" cy="696918"/>
+            <a:chOff x="3190875" y="89047588"/>
+            <a:chExt cx="6637044" cy="696918"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="正方形/長方形 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C4B3F4-A5A2-48C9-9A7E-B636979CBF7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3209924" y="89047588"/>
+              <a:ext cx="6617995" cy="361766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                <a:t>Lambda </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>表达式中的参数列表其实在⼤多 数情况下不必声明参数类型，因此代码可以进⼀步简化</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="92" name="図 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA62AFB1-0E48-41CC-9079-BF170463BBE9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3190875" y="89392125"/>
+              <a:ext cx="6266667" cy="352381"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="95" name="グループ化 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F929DDA0-02E9-41EC-84EC-4373EC317E96}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3054371" y="89447638"/>
+            <a:ext cx="7559635" cy="704805"/>
+            <a:chOff x="3054371" y="89447638"/>
+            <a:chExt cx="7559635" cy="704805"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="正方形/長方形 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2170DBC1-707A-44BA-A046-3965D844A73B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3054371" y="89447638"/>
+              <a:ext cx="7559635" cy="361766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>最后，当 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                <a:t>Lambda </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>表达式的参数列表中只有⼀个参数时，也不必声明参数 名，⽽是可以使⽤ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                <a:t>it </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>关键字来代替</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="94" name="図 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1701E82-58FE-4651-998B-7A53E38AF1A3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3197246" y="89790538"/>
+              <a:ext cx="6238095" cy="361905"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504338</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>95085</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="101" name="グループ化 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08EDF1D-C277-4CD8-8548-BCF916B00CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3914775" y="91144725"/>
+          <a:ext cx="7829063" cy="3009735"/>
+          <a:chOff x="2076450" y="85220175"/>
+          <a:chExt cx="7829063" cy="3009735"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="100" name="図 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C8AA55-5BF1-487F-A12C-1BF8E1A6374A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2076450" y="85220175"/>
+            <a:ext cx="7828571" cy="2304762"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="98" name="図 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98671DB-D75F-4998-8013-43B7CBBFC7CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6010275" y="86906100"/>
+            <a:ext cx="3895238" cy="1323810"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>27515</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>9233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="図 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1237B0BC-E913-4EC3-88D3-21B1595D1136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="95307150"/>
+          <a:ext cx="8476190" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>599793</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>161795</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="108" name="グループ化 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632F7871-C398-4A5D-8390-F603BA69C6FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3038475" y="98421825"/>
+          <a:ext cx="6057618" cy="1038095"/>
+          <a:chOff x="2247900" y="98164650"/>
+          <a:chExt cx="6057618" cy="1038095"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="105" name="図 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6374060-2BC2-42DB-9E9F-9065F6D77347}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2247900" y="98164650"/>
+            <a:ext cx="2314286" cy="1038095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="矢印: 右 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A919C980-64D9-4A1E-8C36-228C654C6D50}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5010150" y="98383725"/>
+            <a:ext cx="809625" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="107" name="図 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6025FFF1-C644-458F-917D-DFCF4DFBA62A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6048375" y="98374200"/>
+            <a:ext cx="2257143" cy="571429"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409075</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>180750</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="119" name="グループ化 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBA7B06-9B9F-4301-B8AF-F2CFFB43C76D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3057525" y="99822000"/>
+          <a:ext cx="9962650" cy="1800000"/>
+          <a:chOff x="3057525" y="99822000"/>
+          <a:chExt cx="9962650" cy="1800000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="117" name="グループ化 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012CFA75-179A-45F2-AAE6-0DE1E406AA17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3057525" y="99822000"/>
+            <a:ext cx="5715000" cy="1800000"/>
+            <a:chOff x="3057525" y="99822000"/>
+            <a:chExt cx="5715000" cy="1800000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="114" name="図 113">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA78B34-18DC-45CF-BE69-03E60E29631C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3057525" y="99822000"/>
+              <a:ext cx="4580952" cy="1800000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="116" name="矢印: 右 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBCBF40-0332-46AA-A08D-933F84ED75AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7962900" y="100383975"/>
+              <a:ext cx="809625" cy="485775"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="118" name="図 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB7780B-06E4-4771-B21C-466A80DD63A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9020175" y="100269675"/>
+            <a:ext cx="4000000" cy="790476"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561133</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>114077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="図 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC86D1E3-60AB-4B3B-8269-721D35E9F715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="101917500"/>
+          <a:ext cx="6733333" cy="1780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361542</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>37848</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="130" name="グループ化 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8946CC-5C62-488E-AD1D-EF25E61CD641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3238500" y="104460675"/>
+          <a:ext cx="15906342" cy="2019048"/>
+          <a:chOff x="3238500" y="104460675"/>
+          <a:chExt cx="15906342" cy="2019048"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="121" name="図 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BDA07FA-8442-4123-9F2A-8F6B27916081}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7000875" y="104460675"/>
+            <a:ext cx="2790476" cy="2019048"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="122" name="図 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB935F65-275A-4187-888A-BDFCE4E9C56C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3238500" y="105175050"/>
+            <a:ext cx="2257143" cy="571429"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="矢印: 右 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2C746E-B219-4326-AA69-047F05ED4B80}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5829300" y="105194100"/>
+            <a:ext cx="809625" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="126" name="矢印: 右 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EE738D-4E4E-4B85-A964-4491FCFB4595}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10153650" y="105165525"/>
+            <a:ext cx="809625" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="127" name="図 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA78FCBE-9BEB-45E1-A9A0-BD0FFF161478}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11258550" y="104765475"/>
+            <a:ext cx="2923809" cy="1533333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="矢印: 右 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4734EE-2390-4374-8FBE-9DB4CA7FE6DF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14754225" y="105156000"/>
+            <a:ext cx="809625" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="129" name="図 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF678A81-1132-4C43-9984-E581538CAFE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+          <a:srcRect t="11766"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15878175" y="104670225"/>
+            <a:ext cx="3266667" cy="1571402"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2635,24 +7487,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N154"/>
+  <dimension ref="A1:AD455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T164" sqref="T164"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="30" max="30" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:30">
+      <c r="A1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:30">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2660,7 +7518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:30">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2668,7 +7526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:30">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2676,31 +7534,60 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="Y5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="Y6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="Y7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="Y8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="AD9" s="9">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:30">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2708,12 +7595,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:30">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2724,7 +7611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2735,7 +7622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3025,7 +7912,7 @@
         <v>42</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3037,64 +7924,518 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="B69" t="s">
-        <v>86</v>
+      <c r="B69" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="B72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="C93" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="94" spans="2:8">
       <c r="C94" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="B141" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="14:14">
-      <c r="N154" t="s">
+    <row r="144" spans="1:4">
+      <c r="B144" t="s">
         <v>99</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="C145" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="C146" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="C147" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="C148" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="C149" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="B151" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="B154" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="B155" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="E156" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="E157" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="G158" t="s">
+        <v>120</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="B160" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="C189" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="C190" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="D191" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="D192" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="C194" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="C195" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="C204" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="C205" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="C206" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="C207" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="C208" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="3:13">
+      <c r="C209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F209" t="s">
+        <v>144</v>
+      </c>
+      <c r="M209" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="210" spans="3:13">
+      <c r="F210" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="220" spans="3:13">
+      <c r="D220" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4">
+      <c r="D231" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4">
+      <c r="B238" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="280" spans="2:21">
+      <c r="U280" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="286" spans="2:21">
+      <c r="B286" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" spans="2:21">
+      <c r="C287" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="288" spans="2:21">
+      <c r="D288" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="289" spans="4:7">
+      <c r="D289" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="290" spans="4:7">
+      <c r="E290" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="291" spans="4:7">
+      <c r="E291" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="292" spans="4:7">
+      <c r="E292" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="293" spans="4:7">
+      <c r="D293" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="303" spans="4:7">
+      <c r="D303" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5">
+      <c r="C307" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="D308" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="B309" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E309" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5">
+      <c r="B318" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5">
+      <c r="C319" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5">
+      <c r="C320" t="s">
+        <v>174</v>
+      </c>
+      <c r="E320" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4">
+      <c r="D333" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="343" spans="4:6">
+      <c r="D343" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="353" spans="3:7">
+      <c r="C353" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="354" spans="3:7">
+      <c r="E354" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G354" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="355" spans="3:7">
+      <c r="F355" s="1"/>
+    </row>
+    <row r="381" spans="5:6">
+      <c r="E381" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="382" spans="5:6">
+      <c r="F382" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="397" spans="2:8">
+      <c r="F397" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="399" spans="2:8">
+      <c r="E399" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="400" spans="2:8">
+      <c r="B400" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="412" spans="3:4">
+      <c r="C412" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="413" spans="3:4">
+      <c r="D413" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="419" spans="4:4">
+      <c r="D419" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="428" spans="4:4">
+      <c r="D428" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="437" spans="4:5">
+      <c r="D437" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="438" spans="4:5">
+      <c r="E438" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="E449" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="C451" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="B453" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="Y6" location="Sheet1!A1" display="第 1 章 开始启程，你的第⼀⾏ Android 代码" xr:uid="{3E73863A-4C81-4F7D-8B5B-44A1CCEB5203}"/>
+    <hyperlink ref="A1" location="Sheet1!Y6" display="第 1 章 开始启程，你的第⼀⾏ Android 代码" xr:uid="{B8B98C22-8100-48D7-B4FE-ABAD418EF228}"/>
+    <hyperlink ref="A153" location="Sheet1!Y7" display="第 2 章 Kotlin 探究新语⾔，快速入门编程" xr:uid="{BA8ADFAD-5087-46E8-AB82-E8E368A39129}"/>
+    <hyperlink ref="Y7" location="Sheet1!A153" display="第 2 章 探究新语⾔，快速⼊门 Kotlin 编程" xr:uid="{2988785C-B752-43EE-A4C5-A60999F43F9D}"/>
+    <hyperlink ref="B69" location="Sheet1!AD6" display="以上 2024-12-19 11:15" xr:uid="{9BCA4BBF-A905-4BA4-B808-39F12B0ECFB3}"/>
+    <hyperlink ref="AD6" location="Sheet1!B69" display="Sheet1!B69" xr:uid="{316ED908-F24A-4299-904E-F5126EEE2977}"/>
+    <hyperlink ref="B141" location="Sheet1!AD7" display="以上 2024-12-20" xr:uid="{E3C713ED-C3A5-4F7A-A9FC-9DAFE1CBD54C}"/>
+    <hyperlink ref="AD7" location="Sheet1!B141" display="Sheet1!B141" xr:uid="{180ECC5E-B055-4A30-9C60-42F894AE2FD5}"/>
+    <hyperlink ref="AD8" location="Sheet1!B309" display="Sheet1!B309" xr:uid="{DD98D0FB-335E-46C9-9844-CB66AA14E2B1}"/>
+    <hyperlink ref="B309" location="Sheet1!AD8" display="以上 2024/12/23" xr:uid="{9032966F-7EC3-4146-9AA7-231AB72B174A}"/>
+    <hyperlink ref="AD9" location="Sheet1!B453" display="Sheet1!B453" xr:uid="{E0EEF5EC-D98B-4D1E-8872-6185CBABCA47}"/>
+    <hyperlink ref="B453" location="Sheet1!AD9" display="以上 2024/12/24 15:56" xr:uid="{4A556780-11BD-416E-B8B8-98033156A62A}"/>
+    <hyperlink ref="Y8" location="Sheet1!A455" display="第 3 章 Activity 先从看得到的⼊⼿，探究Acticity" xr:uid="{164997C8-C1A3-4F10-9DDD-44516E9A915E}"/>
+    <hyperlink ref="A455" location="Sheet1!Y8" display="第 3 章 Activity 先从看得到的⼊⼿，探究Acticity" xr:uid="{A21C38A8-DF09-471C-8A34-404C0AC34312}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
